--- a/Parts_Actual_Costs.xlsx
+++ b/Parts_Actual_Costs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15772" windowHeight="10555" xr2:uid="{E98E70A6-6B19-4DB8-B9CD-10E6A2AE4743}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15772" windowHeight="10012" xr2:uid="{E98E70A6-6B19-4DB8-B9CD-10E6A2AE4743}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Item</t>
   </si>
@@ -89,9 +89,6 @@
     <t>USB Micro-B Power Breakout</t>
   </si>
   <si>
-    <t>ebay</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -102,6 +99,33 @@
   </si>
   <si>
     <t>uBlox GPS</t>
+  </si>
+  <si>
+    <t>Unique Photo</t>
+  </si>
+  <si>
+    <t>GND2353</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>DEV-13743</t>
+  </si>
+  <si>
+    <t>Nylon tactical belt</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Waterproof airtight survival case</t>
+  </si>
+  <si>
+    <t>5v 5600 mAh USB battery</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -125,12 +149,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,9 +181,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5477E64E-2283-47DE-BE70-0217F6914895}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -478,7 +516,7 @@
     <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -526,7 +564,7 @@
         <v>0.77159999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -550,7 +588,7 @@
         <v>5.7200000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -570,11 +608,14 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G7" si="0">(D4+E4)/F4</f>
+        <f t="shared" ref="G4:G16" si="0">(D4+E4)/F4</f>
         <v>6.0875000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -598,70 +639,223 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>15.99</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>3.198</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>1.46</v>
+        <v>33.75</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.5419999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>111.5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>4.46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>174.75</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>6.99</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>312.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>13.57</v>
+      </c>
+      <c r="F10" s="2">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>13.0428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>7.99</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>7.99</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>3.28</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <f>SUM(G2:G16)</f>
-        <v>11.7393</v>
+        <v>57.584100000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Parts_Actual_Costs.xlsx
+++ b/Parts_Actual_Costs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Item</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Heat-shrink tubing, 50mm</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -764,7 +767,7 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>7.99</v>
+        <v>5.99</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -774,7 +777,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>7.99</v>
+        <v>5.99</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -788,7 +791,7 @@
         <v>30</v>
       </c>
       <c r="D12">
-        <v>3.28</v>
+        <v>4.96</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -798,7 +801,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>3.28</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -823,12 +826,24 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>5.43</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
       <c r="F14">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -850,12 +865,17 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G17">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
         <f>SUM(G2:G16)</f>
-        <v>57.584100000000007</v>
+        <v>57.445100000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Parts_Actual_Costs.xlsx
+++ b/Parts_Actual_Costs.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Karl\Documents\GitHub\COTS_GPS_Collars\COTS_GPS_Collars\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C5710B-BAD8-4727-B11A-F9A2A659FC62}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15772" windowHeight="10012" xr2:uid="{E98E70A6-6B19-4DB8-B9CD-10E6A2AE4743}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Item</t>
   </si>
@@ -59,9 +60,6 @@
     <t>57.6KXBK-ND</t>
   </si>
   <si>
-    <t>57.6K-Ohm Resistor</t>
-  </si>
-  <si>
     <t>TP5110 Low Power Timer Breakout</t>
   </si>
   <si>
@@ -125,10 +123,31 @@
     <t>5v 5600 mAh USB battery</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Heat-shrink tubing, 50mm</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Qty Ordered</t>
+  </si>
+  <si>
+    <t>15 ft</t>
+  </si>
+  <si>
+    <t>10 ft</t>
+  </si>
+  <si>
+    <t>43K-Ohm Resistor</t>
+  </si>
+  <si>
+    <t>100 mF Capacitor</t>
+  </si>
+  <si>
+    <t>493-1548-ND</t>
   </si>
 </sst>
 </file>
@@ -503,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5477E64E-2283-47DE-BE70-0217F6914895}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -519,7 +538,7 @@
     <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +560,14 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -566,10 +591,16 @@
         <f>(D2+E2)/F2</f>
         <v>0.77159999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -578,220 +609,247 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <f>(D3+E3)/F3</f>
-        <v>5.7200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.3666666666666666E-2</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>6.24</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <f>(D4+E4)/F4</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5">
+        <v>111.5</v>
+      </c>
+      <c r="E5">
+        <v>4.55</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G17" si="0">(D5+E5)/F5</f>
+        <v>4.6419999999999995</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>19.8</v>
-      </c>
-      <c r="E4">
-        <v>4.55</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G16" si="0">(D4+E4)/F4</f>
-        <v>6.0875000000000004</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6">
+        <v>4.95</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>4.95</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="D7" s="2">
+        <v>15.99</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.198</v>
+      </c>
+      <c r="H7" s="2">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2">
-        <v>15.99</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>3.198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>33.75</v>
+      </c>
+      <c r="E8">
+        <v>4.8</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.5419999999999998</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7">
-        <v>33.75</v>
-      </c>
-      <c r="E7">
-        <v>4.8</v>
-      </c>
-      <c r="F7">
-        <v>25</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1.5419999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3">
+        <v>111.5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>4.46</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>174.75</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>6.99</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>312.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>13.57</v>
+      </c>
+      <c r="F11" s="2">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>13.0428</v>
+      </c>
+      <c r="H11" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3">
-        <v>111.5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>25</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>4.46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>174.75</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>25</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>6.99</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>312.5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>13.57</v>
-      </c>
-      <c r="F10" s="2">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>13.0428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11">
+      <c r="D12">
         <v>5.99</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>5.99</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>4.96</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -801,18 +859,21 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
+        <v>5.99</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
         <v>4.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -822,40 +883,61 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
+        <v>4.96</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>5.43</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>30</v>
       </c>
-      <c r="D14">
-        <v>5.43</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>30</v>
-      </c>
-      <c r="G14">
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>0.18099999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>1</v>
       </c>
@@ -865,17 +947,26 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1">
-        <f>SUM(G2:G16)</f>
-        <v>57.445100000000004</v>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <f>SUM(G2:G17)</f>
+        <v>56.194066666666664</v>
       </c>
     </row>
   </sheetData>

--- a/Parts_Actual_Costs.xlsx
+++ b/Parts_Actual_Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Karl\Documents\GitHub\COTS_GPS_Collars\COTS_GPS_Collars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C5710B-BAD8-4727-B11A-F9A2A659FC62}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB318A8-89E7-4493-A307-20A89FE4A37C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15772" windowHeight="10012" xr2:uid="{E98E70A6-6B19-4DB8-B9CD-10E6A2AE4743}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Item</t>
   </si>
@@ -93,15 +93,9 @@
     <t>SD card breakout</t>
   </si>
   <si>
-    <t>Micro SD card (2GB)</t>
-  </si>
-  <si>
     <t>uBlox GPS</t>
   </si>
   <si>
-    <t>Unique Photo</t>
-  </si>
-  <si>
     <t>GND2353</t>
   </si>
   <si>
@@ -148,6 +142,9 @@
   </si>
   <si>
     <t>493-1548-ND</t>
+  </si>
+  <si>
+    <t>Micro SD card (4GB)</t>
   </si>
 </sst>
 </file>
@@ -525,7 +522,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -561,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -595,12 +592,12 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -624,13 +621,16 @@
       <c r="H3">
         <v>25</v>
       </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -651,6 +651,9 @@
       <c r="H4">
         <v>30</v>
       </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -703,10 +706,10 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -734,7 +737,7 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -742,7 +745,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>33.75</v>
@@ -761,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -769,7 +772,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
@@ -790,19 +793,22 @@
       <c r="H9">
         <v>25</v>
       </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>174.75</v>
+        <v>149.05000000000001</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -812,7 +818,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>6.99</v>
+        <v>5.9620000000000006</v>
       </c>
       <c r="H10">
         <v>25</v>
@@ -820,7 +826,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -843,10 +849,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>5.99</v>
@@ -867,10 +873,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>4.96</v>
@@ -891,10 +897,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -915,10 +921,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>5.43</v>
@@ -934,7 +940,10 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -966,7 +975,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1">
         <f>SUM(G2:G17)</f>
-        <v>56.194066666666664</v>
+        <v>55.166066666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Parts_Actual_Costs.xlsx
+++ b/Parts_Actual_Costs.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Karl\Documents\GitHub\COTS_GPS_Collars\COTS_GPS_Collars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB318A8-89E7-4493-A307-20A89FE4A37C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAD5D9B-4E55-48EE-AD7A-BD97F3F272D4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15772" windowHeight="10012" xr2:uid="{E98E70A6-6B19-4DB8-B9CD-10E6A2AE4743}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="10008" xr2:uid="{E98E70A6-6B19-4DB8-B9CD-10E6A2AE4743}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Item</t>
   </si>
@@ -84,9 +89,6 @@
     <t>Amazon - XCSOURCE Direct</t>
   </si>
   <si>
-    <t>USB Micro-B Power Breakout</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -99,9 +101,6 @@
     <t>GND2353</t>
   </si>
   <si>
-    <t>Adafruit</t>
-  </si>
-  <si>
     <t>DEV-13743</t>
   </si>
   <si>
@@ -111,12 +110,6 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>Waterproof airtight survival case</t>
-  </si>
-  <si>
-    <t>5v 5600 mAh USB battery</t>
-  </si>
-  <si>
     <t>Heat-shrink tubing, 50mm</t>
   </si>
   <si>
@@ -145,6 +138,27 @@
   </si>
   <si>
     <t>Micro SD card (4GB)</t>
+  </si>
+  <si>
+    <t>Per Unit Shipping</t>
+  </si>
+  <si>
+    <t>Pololu voltage regulator</t>
+  </si>
+  <si>
+    <t>Pololu</t>
+  </si>
+  <si>
+    <t>3.3V 18650 3500mAh batteries</t>
+  </si>
+  <si>
+    <t>Imr Batteries</t>
+  </si>
+  <si>
+    <t>Supplyhouse.com</t>
+  </si>
+  <si>
+    <t>PVC Caps and hose clamps</t>
   </si>
 </sst>
 </file>
@@ -519,23 +533,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5477E64E-2283-47DE-BE70-0217F6914895}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J2" sqref="J2:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,13 +572,16 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -592,12 +609,16 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <f>E2/F2</f>
+        <v>0.18840000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -622,15 +643,19 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J16" si="0">E3/F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -652,10 +677,14 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -675,14 +704,18 @@
         <v>25</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G17" si="0">(D5+E5)/F5</f>
+        <f t="shared" ref="G5:G17" si="1">(D5+E5)/F5</f>
         <v>4.6419999999999995</v>
       </c>
       <c r="H5">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -702,17 +735,21 @@
         <v>30</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -730,49 +767,26 @@
         <v>5</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.198</v>
       </c>
       <c r="H7" s="2">
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>33.75</v>
-      </c>
-      <c r="E8">
-        <v>4.8</v>
-      </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1.5419999999999998</v>
-      </c>
-      <c r="H8">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
@@ -787,25 +801,29 @@
         <v>25</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.46</v>
       </c>
       <c r="H9">
         <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>149.05000000000001</v>
@@ -817,16 +835,20 @@
         <v>25</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9620000000000006</v>
       </c>
       <c r="H10">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -840,19 +862,23 @@
         <v>25</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.0428</v>
       </c>
       <c r="H11" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.54280000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>5.99</v>
@@ -864,67 +890,79 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.99</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>4.96</v>
+        <v>71.45</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>4.96</v>
+        <f t="shared" si="1"/>
+        <v>4.4060000000000006</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>187.5</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>14.78</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>6.7426666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.49266666666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>5.43</v>
@@ -936,37 +974,57 @@
         <v>30</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18099999999999999</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>87.25</v>
+      </c>
+      <c r="E16">
+        <v>12.37</v>
+      </c>
       <c r="F16">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3.9848000000000003</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.49479999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -975,7 +1033,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1">
         <f>SUM(G2:G17)</f>
-        <v>55.166066666666666</v>
+        <v>53.797533333333327</v>
       </c>
     </row>
   </sheetData>
